--- a/InputFiles/CCDI/TC06_CCDI_RowDataValidation_phs002529.xlsx
+++ b/InputFiles/CCDI/TC06_CCDI_RowDataValidation_phs002529.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\Desktop\CCDI\phs002529\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B26C0B-8D20-46A9-99AC-889FB97466DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D662956C-BC38-4C00-8531-3A2C27CB0B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -149,53 +149,17 @@
 Order by sm.sample_id Limit 100</t>
   </si>
   <si>
-    <t>MATCH (file:clinical_measure_file)
-MATCH (p:participant)-[:of_clinical_measure_file_participant]-(file)
-MATCH (st)&lt;-[:of_participant]-(p)
-where p.participant_id in ["InptVlue"]
-WITH file, st, p, ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units, toInteger(floor(log(file.file_size)/log(1024))) as i, 2 as precision
-WITH file, st, p,
-file.file_size /(1024^i) AS value, 10^precision AS factor, units[i] as unit
-WITH file, st, p, unit, round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-st.study_id AS `Study ID`,
-p.participant_id as `Participant ID`,
-null AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:clinical_measure_file)
-MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
-MATCH (st)&lt;-[:of_participant]-(p:participant)
-where p.participant_id in ["InptVlue"]
-WITH file, st,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-st.study_id AS `Study ID`,
-null as `Participant ID`,
-null AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:methylation_array_file)
+    <t>TC06_CCDI_RowDataValidation_phs002529-InptVlue_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC06_CCDI_RowDataValidation_phs002529-InptVlue_ExData.xlsx</t>
+  </si>
+  <si>
+    <t>MATCH (file:methylation_array_file)
 MATCH (sm:sample)&lt;-[:of_methylation_array_file]-(file)
 MATCH (p:participant)&lt;-[:of_sample]-(sm)
 MATCH (st:study)&lt;-[:of_participant]-(p)
-where p.participant_id in ["InptVlue"]
+where  st.phs_accession in ['phs002529'] and p.participant_id in ['InptVlue']
 WITH file, st, p, sm,
 ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
 toInteger(floor(log(file.file_size)/log(1024))) as i,
@@ -220,7 +184,7 @@
 MATCH (sm:sample)&lt;-[:of_pathology_file]-(file)
 MATCH (p:participant)&lt;-[:of_sample]-(sm)
 MATCH (st:study)&lt;-[:of_participant]-(p)
-where p.participant_id in ["InptVlue"]
+where  st.phs_accession in ['phs002529'] and p.participant_id in ['InptVlue']
 WITH file, st, p, sm,
 ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
 toInteger(floor(log(file.file_size)/log(1024))) as i,
@@ -244,7 +208,7 @@
 MATCH (file:radiology_file)
 MATCH (p:participant)&lt;-[:of_radiology_file]-(file)
 MATCH (st:study)&lt;-[:of_participant]-(p)
-where p.participant_id in ["InptVlue"]
+where  st.phs_accession in ['phs002529'] and p.participant_id in ['InptVlue']
 WITH file, st, p,
 ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
 toInteger(floor(log(file.file_size)/log(1024))) as i,
@@ -269,7 +233,7 @@
 MATCH (sm:sample)&lt;-[:of_single_cell_sequencing_file]-(file)
 MATCH (p:participant)&lt;-[:of_sample]-(sm)
 MATCH (st:study)&lt;-[:of_participant]-(p)
-where p.participant_id in ["InptVlue"]
+where  st.phs_accession in ['phs002529'] and p.participant_id in ['InptVlue']
 WITH file, st, p, sm,
 ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
 toInteger(floor(log(file.file_size)/log(1024))) as i,
@@ -294,7 +258,7 @@
 MATCH (sm:sample)&lt;-[:of_sequencing_file]-(file)
 MATCH (p:participant)&lt;-[:of_sample]-(sm)
 MATCH (st:study)&lt;-[:of_participant]-(p)
-where p.participant_id in ["InptVlue"]
+where  st.phs_accession in ['phs002529'] and p.participant_id in ['InptVlue']
 WITH file, st, p, sm,
 ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
 toInteger(floor(log(file.file_size)/log(1024))) as i,
@@ -313,13 +277,8 @@
 p.participant_id as `Participant ID`,
 sm.sample_id AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`</t>
-  </si>
-  <si>
-    <t>TC06_CCDI_RowDataValidation_phs002529-InptVlue_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC06_CCDI_RowDataValidation_phs002529-InptVlue_ExData.xlsx</t>
+file.md5sum AS `MD5sum`
+Order by `File Name` asc</t>
   </si>
 </sst>
 </file>
@@ -691,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="275" customHeight="1" x14ac:dyDescent="0.35">
@@ -739,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
@@ -753,10 +712,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="203" x14ac:dyDescent="0.35">
@@ -767,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
@@ -778,13 +737,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
